--- a/Data/Habitat_Quality_Restoration_and_Protection_Scoring.xlsx
+++ b/Data/Habitat_Quality_Restoration_and_Protection_Scoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446DD4A9-4C97-46DA-93A5-538390D09048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF91912-D5C1-4356-84A8-158E5B668951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="552" yWindow="468" windowWidth="19644" windowHeight="11340" xr2:uid="{9D2762CD-0033-457E-BDB0-98D3A9FB6889}"/>
+    <workbookView xWindow="1548" yWindow="1776" windowWidth="20196" windowHeight="10872" xr2:uid="{9D2762CD-0033-457E-BDB0-98D3A9FB6889}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Habitat Quality Scoring- Restoration</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Category_Upper</t>
+  </si>
+  <si>
+    <t>&lt;70% functional</t>
+  </si>
+  <si>
+    <t>70-90% functional</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -559,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C6" s="1">
         <v>0.9</v>
@@ -568,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>2</v>
